--- a/biology/Médecine/Gottlieb_Burckhardt/Gottlieb_Burckhardt.xlsx
+++ b/biology/Médecine/Gottlieb_Burckhardt/Gottlieb_Burckhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gottlieb Burckhardt, né le 24 décembre 1836 à Bâle et mort le 6 février 1907 à Bâle, est un psychiatre suisse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gottlieb Burckhardt est le fils d'August, médecin, et de Katharina Jacot, de Montbéliard[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gottlieb Burckhardt est le fils d'August, médecin, et de Katharina Jacot, de Montbéliard.
 Après des études de médecine à Bâle, Göttingen et Berlin, il obtient un doctorat en 1860 à Bâle. Il s'intéresse ensuite aux maladies nerveuses et devient, en 1873, médecin assistant à la clinique psychiatrique de la WaldauWaldau, à Berne. En 1882, il devient directeur de l'asile d'aliénés de Préfargier dans la commune de Marin-Epagnier (canton de Neuchâtel). À partir de 1888, il tente de soigner les psychoses par excision de certaines zones du cortex cérébral, ce qui l'amena à publier sur ce sujet, en 1891, dans un ouvrage qui eut un certain retentissement, tout particulièrement aux États-Unis.
 En fin de carrière, il abandonna ses recherches et revint comme directeur de la clinique Sonnhalde, à Bâle.
 </t>
